--- a/Index_Classification_problems.xlsx
+++ b/Index_Classification_problems.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>Predict if an employee leaves the company given performance rating, job satisfaction, age and much more.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>EDA done in details</t>
+  </si>
+  <si>
+    <t>Fish_Species_Prediction.ipynb</t>
+  </si>
+  <si>
+    <t>Predict species of a fish given lengh, widht etc</t>
   </si>
 </sst>
 </file>
@@ -393,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,9 +416,10 @@
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +429,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -428,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -439,14 +455,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -455,8 +485,9 @@
     <hyperlink ref="A2" r:id="rId1" tooltip="Customer_Behavior_Data.ipynb" display="https://github.com/SrijaniDas-GitHub/Classification_problems/blob/master/Customer_Behavior_Data.ipynb"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="Diabetes_dataset.ipynb" display="https://github.com/SrijaniDas-GitHub/Classification_problems/blob/master/Diabetes_dataset.ipynb"/>
     <hyperlink ref="A4" r:id="rId3" tooltip="HR_Data_Analysis.ipynb" display="https://github.com/SrijaniDas-GitHub/Classification_problems/blob/master/HR_Data_Analysis.ipynb"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="Fish_Species_Prediction.ipynb" display="https://github.com/SrijaniDas-GitHub/Classification_problems/blob/master/Fish_Species_Prediction.ipynb"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>